--- a/DataCollection/AllData_raw_csv/10mmParameters.xlsx
+++ b/DataCollection/AllData_raw_csv/10mmParameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\AllData_raw_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCBBA66-ED3B-4470-B6ED-00FB86C72F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1745749B-CF1F-41EF-9937-024C95BDE4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
+    <workbookView xWindow="-25680" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Test10" sheetId="1" r:id="rId1"/>
@@ -321,9 +321,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,6 +398,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,6 +416,1389 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Slope</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Strain</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>13cm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Test10!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.3333333333333361E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.6666666666666721E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.9999999999999936E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Test10!$G$5:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.64120999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64433333333334986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58833333333334537</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53599999999999248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0492-47C7-840D-9DD7E75A13FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>23cm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Test10!$F$9:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8181818181818177E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.14090909090909098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Test10!$G$9:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.69864000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67695454545454581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59399999999997988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0492-47C7-840D-9DD7E75A13FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>27cm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Test10!$F$12:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7237354085603085E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8365758754863814E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.12062256809338513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Test10!$G$12:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.68927000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72813618677045255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68845525291827414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57850583657594257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0492-47C7-840D-9DD7E75A13FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>29cm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Test10!$F$16:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.0498220640569492E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.964412811387903E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.14590747330960857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Test10!$G$16:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.70982999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72292170818518287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62056939501775332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57621708185052967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0492-47C7-840D-9DD7E75A13FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>30cm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Test10!$F$20:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.2704626334519671E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.8291814946619312E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.11743772241992885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Test10!$G$20:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.71596000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74334519572900604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68138790035558827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61311743772240845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0492-47C7-840D-9DD7E75A13FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="515101016"/>
+        <c:axId val="515101344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="515101016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Strain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515101344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="515101344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Slope</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515101016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5603</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>453838</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66116</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F432A1-86B3-CCB9-C414-DEB8FEE1D2C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -717,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F6281-533D-4517-84CE-3CB45F536282}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,977 +2125,977 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="25" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>0.64120999999999995</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>548.01</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>20.664000000000001</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>-59.043999999999997</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>0</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <f>(B5+(C5*F5))</f>
         <v>0.64120999999999995</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <f>D5*F5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.61463999999999996</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>-1837.9</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>-55.512999999999998</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>-52.014000000000003</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="25">
         <f>(I5+J5*F5)</f>
         <v>0.61463999999999996</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="20">
         <f>K5*F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10">
+      <c r="A6" s="11"/>
+      <c r="B6" s="9">
         <v>-22.774000000000001</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>-702.55</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>10.75</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>-130.37</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <f>(11.6-12)/12</f>
         <v>-3.3333333333333361E-2</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="26">
         <f t="shared" ref="G6:G23" si="0">(B6+(C6*F6))</f>
         <v>0.64433333333334986</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <f t="shared" ref="H6:H23" si="1">D6*F6</f>
         <v>-0.35833333333333361</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>-1.7336</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>-69.917000000000002</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>8.2085000000000008</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>-105.97</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="26">
         <f t="shared" ref="M6:M23" si="2">(I6+J6*F6)</f>
         <v>0.59696666666666864</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="21">
         <f t="shared" ref="N6:N23" si="3">K6*F6</f>
         <v>-0.2736166666666669</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10">
+      <c r="A7" s="11"/>
+      <c r="B7" s="9">
         <v>-15.079000000000001</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>-235.01</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>-12.202999999999999</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>-195.61</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <f>(11.2-12)/12</f>
         <v>-6.6666666666666721E-2</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <f t="shared" si="0"/>
         <v>0.58833333333334537</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <f t="shared" si="1"/>
         <v>0.813533333333334</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>-81.597999999999999</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>-1232.3</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>115.6</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>-157.94999999999999</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="26">
         <f t="shared" si="2"/>
         <v>0.55533333333339385</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="21">
         <f t="shared" si="3"/>
         <v>-7.7066666666666723</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13">
         <v>-10.887</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>-114.23</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>238.59</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>-207.51</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <f>(10.8-12)/12</f>
         <v>-9.9999999999999936E-2</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <f t="shared" si="0"/>
         <v>0.53599999999999248</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <f t="shared" si="1"/>
         <v>-23.858999999999984</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <v>-8.4231999999999996</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <v>-88.525999999999996</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <v>82.882999999999996</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <v>-153.41</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="27">
         <f t="shared" si="2"/>
         <v>0.42939999999999401</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="21">
         <f t="shared" si="3"/>
         <v>-8.2882999999999942</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>0.69864000000000004</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>366.76</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>-5.6566999999999998</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>-58.101999999999997</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>0</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <f t="shared" si="0"/>
         <v>0.69864000000000004</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <v>0.65929000000000004</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <v>-224.61</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="17">
         <v>33.716000000000001</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="18">
         <v>-48.645000000000003</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="25">
         <f t="shared" si="2"/>
         <v>0.65929000000000004</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10">
+      <c r="A10" s="11"/>
+      <c r="B10" s="9">
         <v>-10.766</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>-167.83</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>136.16</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>-260.05</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f>(20.5-22)/22</f>
         <v>-6.8181818181818177E-2</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="26">
         <f t="shared" si="0"/>
         <v>0.67695454545454581</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <f t="shared" si="1"/>
         <v>-9.2836363636363632</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>133.79</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>1953.2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>47.484000000000002</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>-219.31</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="26">
         <f t="shared" si="2"/>
         <v>0.6172727272727343</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="21">
         <f t="shared" si="3"/>
         <v>-3.2375454545454545</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13">
         <v>34.57</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>241.12</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>178.96</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>-311.63</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f>(18.9-22)/22</f>
         <v>-0.14090909090909098</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="27">
         <f t="shared" si="0"/>
         <v>0.59399999999997988</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <f t="shared" si="1"/>
         <v>-25.217090909090924</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <v>30.437999999999999</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <v>212.99</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>114.27</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>-207.53</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="26">
         <f t="shared" si="2"/>
         <v>0.4257727272727081</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="21">
         <f t="shared" si="3"/>
         <v>-16.101681818181827</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>0.68927000000000005</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>-189.64</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>23.157</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>-46.625</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="25">
         <f t="shared" si="0"/>
         <v>0.68927000000000005</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>0.63105</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="17">
         <v>-832.77</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="17">
         <v>-14.773999999999999</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="18">
         <v>-27.236000000000001</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="25">
         <f t="shared" si="2"/>
         <v>0.63105</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9">
         <v>24.353000000000002</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>867.37</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>-12.47</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>-196.61</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f>(25-25.7)/25.7</f>
         <v>-2.7237354085603085E-2</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="26">
         <f t="shared" si="0"/>
         <v>0.72813618677045255</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="21">
         <f t="shared" si="1"/>
         <v>0.33964980544747048</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>-1.5601</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>-81.753</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>-1.8831</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <v>-155.12</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="26">
         <f t="shared" si="2"/>
         <v>0.66663540856030923</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="21">
         <f t="shared" si="3"/>
         <v>5.1290661478599169E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9">
         <v>94.668999999999997</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1610.2</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>224.43</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>-231.24</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <f>(24.2-25.7)/25.7</f>
         <v>-5.8365758754863814E-2</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="26">
         <f t="shared" si="0"/>
         <v>0.68845525291827414</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="21">
         <f t="shared" si="1"/>
         <v>-13.099027237354086</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>44.332000000000001</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>749.1</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>179.74</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <v>-180.05</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="26">
         <f t="shared" si="2"/>
         <v>0.61021011673151548</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="21">
         <f t="shared" si="3"/>
         <v>-10.490661478599222</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13">
         <v>84.567999999999998</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>696.3</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>101.55</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>-286.27999999999997</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <f>(22.6-25.7)/25.7</f>
         <v>-0.12062256809338513</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="27">
         <f t="shared" si="0"/>
         <v>0.57850583657594257</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="21">
         <f t="shared" si="1"/>
         <v>-12.24922178988326</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="14">
         <v>23.087</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="14">
         <v>187.71</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="14">
         <v>121.49</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <v>-195.19</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="27">
         <f t="shared" si="2"/>
         <v>0.44493774319067469</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="22">
         <f t="shared" si="3"/>
         <v>-14.654435797665359</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>0.70982999999999996</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>-428.46</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>3.4272</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>-23.14</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="25">
         <f t="shared" si="0"/>
         <v>0.70982999999999996</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>0.66274999999999995</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="17">
         <v>-38.064</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="17">
         <v>4.5829000000000004</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="18">
         <v>-10.651999999999999</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="26">
         <f t="shared" si="2"/>
         <v>0.66274999999999995</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9">
         <v>-81.838999999999999</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>-1364.7</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>-20.251999999999999</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>-231.74</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <f>(26.4-28.1)/28.1</f>
         <v>-6.0498220640569492E-2</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="26">
         <f t="shared" si="0"/>
         <v>0.72292170818518287</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="21">
         <f t="shared" si="1"/>
         <v>1.2252099644128134</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>123.75</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>2034.6</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>52.276000000000003</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>-185.15</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="26">
         <f t="shared" si="2"/>
         <v>0.6603202846973204</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="21">
         <f t="shared" si="3"/>
         <v>-3.1626049822064108</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9">
         <v>140.78</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>1406.6</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>13.737</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>-269.37</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <f>(25.3-28.1)/28.1</f>
         <v>-9.964412811387903E-2</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="26">
         <f t="shared" si="0"/>
         <v>0.62056939501775332</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="21">
         <f t="shared" si="1"/>
         <v>-1.3688113879003563</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>55.841999999999999</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>555.13</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>211.96</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <v>-190.83</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="26">
         <f t="shared" si="2"/>
         <v>0.52655516014233683</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="21">
         <f t="shared" si="3"/>
         <v>-21.1205693950178</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13">
         <v>34.097000000000001</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>229.74</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>190.95</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>-298.52999999999997</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <f>(24-28.1)/28.1</f>
         <v>-0.14590747330960857</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="27">
         <f t="shared" si="0"/>
         <v>0.57621708185052967</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <f t="shared" si="1"/>
         <v>-27.861032028469754</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="14">
         <v>24.933</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="14">
         <v>168.28</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="14">
         <v>108.43</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="15">
         <v>-183.49</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="27">
         <f t="shared" si="2"/>
         <v>0.37969039145906791</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="22">
         <f t="shared" si="3"/>
         <v>-15.820747330960858</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>0.71596000000000004</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>-1010.4</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>-36.225000000000001</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>-38.988999999999997</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <f t="shared" si="0"/>
         <v>0.71596000000000004</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="17">
         <v>0.66181999999999996</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="17">
         <v>-97.274000000000001</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="17">
         <v>23.042999999999999</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="18">
         <v>-25.815999999999999</v>
       </c>
-      <c r="M20" s="27">
+      <c r="M20" s="26">
         <f t="shared" si="2"/>
         <v>0.66181999999999996</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>227.68</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>5314.1</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>293.52</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>-231.11</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <f>(26.9-28.1)/28.1</f>
         <v>-4.2704626334519671E-2</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="26">
         <f t="shared" si="0"/>
         <v>0.74334519572900604</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="21">
         <f t="shared" si="1"/>
         <v>-12.534661921708214</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>10.037000000000001</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>219.37</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>19.692</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="10">
         <v>-193.79</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="26">
         <f t="shared" si="2"/>
         <v>0.66888612099642053</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="21">
         <f t="shared" si="3"/>
         <v>-0.84093950177936139</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10">
+      <c r="A22" s="11"/>
+      <c r="B22" s="9">
         <v>246.87</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>3144.5</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>606.42999999999995</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>-232.94</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <f>(25.9-28.1)/28.1</f>
         <v>-7.8291814946619312E-2</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="26">
         <f t="shared" si="0"/>
         <v>0.68138790035558827</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="21">
         <f t="shared" si="1"/>
         <v>-47.478505338078342</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>169.8</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>2160.9</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>201.06</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>-216.56</v>
       </c>
-      <c r="M22" s="27">
+      <c r="M22" s="26">
         <f t="shared" si="2"/>
         <v>0.61921708185033708</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="21">
         <f t="shared" si="3"/>
         <v>-15.74135231316728</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13">
         <v>39.915999999999997</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>334.67</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>152.74</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>-291.58999999999997</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <f>(24.8-28.1)/28.1</f>
         <v>-0.11743772241992885</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="27">
         <f t="shared" si="0"/>
         <v>0.61311743772240845</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <f t="shared" si="1"/>
         <v>-17.937437722419933</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="14">
         <v>50.731999999999999</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="14">
         <v>427.7</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="14">
         <v>154.15</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="15">
         <v>-217.14</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="27">
         <f t="shared" si="2"/>
         <v>0.50388612099643382</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="22">
         <f t="shared" si="3"/>
         <v>-18.103024911032033</v>
       </c>
@@ -1723,7 +3106,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1733,5 +3116,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DataCollection/AllData_raw_csv/10mmParameters.xlsx
+++ b/DataCollection/AllData_raw_csv/10mmParameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\AllData_raw_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1745749B-CF1F-41EF-9937-024C95BDE4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84490A5-1F0D-4A70-939E-062B52C9AAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25680" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
   </bookViews>
@@ -602,6 +602,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Test10!$F$9:$F$11</c:f>
@@ -673,6 +687,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Test10!$F$12:$F$15</c:f>
@@ -827,6 +855,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Test10!$F$20:$F$23</c:f>
@@ -1764,16 +1806,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5603</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180416</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>677956</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>453838</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>66116</xdr:rowOff>
+      <xdr:colOff>683559</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>145674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/DataCollection/AllData_raw_csv/10mmParameters.xlsx
+++ b/DataCollection/AllData_raw_csv/10mmParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\AllData_raw_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84490A5-1F0D-4A70-939E-062B52C9AAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAF8491-067A-4E0F-8861-F129A6682240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25680" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Test10" sheetId="1" r:id="rId1"/>
@@ -525,6 +525,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Test10!$F$5:$F$8</c:f>
@@ -612,7 +626,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -697,7 +711,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -778,6 +792,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Test10!$F$16:$F$19</c:f>
@@ -865,7 +893,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -1807,15 +1835,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>677956</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:colOff>868455</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>683559</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>145674</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2142,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F6281-533D-4517-84CE-3CB45F536282}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataCollection/AllData_raw_csv/10mmParameters.xlsx
+++ b/DataCollection/AllData_raw_csv/10mmParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\AllData_raw_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAF8491-067A-4E0F-8861-F129A6682240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04A79C0-2987-4C36-9018-349D43146E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
+    <workbookView xWindow="-24885" yWindow="1395" windowWidth="21600" windowHeight="11385" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Test10" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Data</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>(a2*strain)</t>
+  </si>
+  <si>
+    <t>Intercept</t>
   </si>
 </sst>
 </file>
@@ -316,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,6 +399,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2168,10 +2174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F6281-533D-4517-84CE-3CB45F536282}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,17 +2197,17 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2213,17 +2219,17 @@
         <v>17</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="24" t="s">
+      <c r="J3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="24"/>
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2248,26 +2254,32 @@
       <c r="H4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="N4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="O4" s="20" t="s">
         <v>21</v>
       </c>
+      <c r="P4" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -2294,28 +2306,36 @@
         <f>D5*F5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
+        <f>H5+E5</f>
+        <v>-59.043999999999997</v>
+      </c>
+      <c r="J5" s="3">
         <v>0.61463999999999996</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>-1837.9</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>-55.512999999999998</v>
       </c>
-      <c r="L5" s="10">
+      <c r="M5" s="10">
         <v>-52.014000000000003</v>
       </c>
-      <c r="M5" s="25">
-        <f>(I5+J5*F5)</f>
+      <c r="N5" s="25">
+        <f>(J5+K5*F5)</f>
         <v>0.61463999999999996</v>
       </c>
-      <c r="N5" s="20">
-        <f>K5*F5</f>
+      <c r="O5" s="20">
+        <f>L5*F5</f>
         <v>0</v>
       </c>
+      <c r="P5" s="1">
+        <f>M5+O5</f>
+        <v>-52.014000000000003</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="9">
         <v>-22.774000000000001</v>
@@ -2341,28 +2361,36 @@
         <f t="shared" ref="H6:H23" si="1">D6*F6</f>
         <v>-0.35833333333333361</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="29">
+        <f t="shared" ref="I6:I23" si="2">H6+E6</f>
+        <v>-130.72833333333332</v>
+      </c>
+      <c r="J6" s="3">
         <v>-1.7336</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>-69.917000000000002</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>8.2085000000000008</v>
       </c>
-      <c r="L6" s="10">
+      <c r="M6" s="10">
         <v>-105.97</v>
       </c>
-      <c r="M6" s="26">
-        <f t="shared" ref="M6:M23" si="2">(I6+J6*F6)</f>
+      <c r="N6" s="26">
+        <f>(J6+K6*F6)</f>
         <v>0.59696666666666864</v>
       </c>
-      <c r="N6" s="21">
-        <f t="shared" ref="N6:N23" si="3">K6*F6</f>
+      <c r="O6" s="21">
+        <f>L6*F6</f>
         <v>-0.2736166666666669</v>
       </c>
+      <c r="P6" s="29">
+        <f t="shared" ref="P6:P23" si="3">M6+O6</f>
+        <v>-106.24361666666667</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="9">
         <v>-15.079000000000001</v>
@@ -2388,28 +2416,36 @@
         <f t="shared" si="1"/>
         <v>0.813533333333334</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="29">
+        <f t="shared" si="2"/>
+        <v>-194.79646666666667</v>
+      </c>
+      <c r="J7" s="3">
         <v>-81.597999999999999</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>-1232.3</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>115.6</v>
       </c>
-      <c r="L7" s="10">
+      <c r="M7" s="10">
         <v>-157.94999999999999</v>
       </c>
-      <c r="M7" s="26">
-        <f t="shared" si="2"/>
+      <c r="N7" s="26">
+        <f>(J7+K7*F7)</f>
         <v>0.55533333333339385</v>
       </c>
-      <c r="N7" s="21">
+      <c r="O7" s="21">
+        <f>L7*F7</f>
+        <v>-7.7066666666666723</v>
+      </c>
+      <c r="P7" s="29">
         <f t="shared" si="3"/>
-        <v>-7.7066666666666723</v>
+        <v>-165.65666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="13">
         <v>-10.887</v>
@@ -2435,28 +2471,36 @@
         <f t="shared" si="1"/>
         <v>-23.858999999999984</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="29">
+        <f t="shared" si="2"/>
+        <v>-231.36899999999997</v>
+      </c>
+      <c r="J8" s="14">
         <v>-8.4231999999999996</v>
       </c>
-      <c r="J8" s="14">
+      <c r="K8" s="14">
         <v>-88.525999999999996</v>
       </c>
-      <c r="K8" s="14">
+      <c r="L8" s="14">
         <v>82.882999999999996</v>
       </c>
-      <c r="L8" s="15">
+      <c r="M8" s="15">
         <v>-153.41</v>
       </c>
-      <c r="M8" s="27">
-        <f t="shared" si="2"/>
+      <c r="N8" s="27">
+        <f>(J8+K8*F8)</f>
         <v>0.42939999999999401</v>
       </c>
-      <c r="N8" s="21">
+      <c r="O8" s="21">
+        <f>L8*F8</f>
+        <v>-8.2882999999999942</v>
+      </c>
+      <c r="P8" s="29">
         <f t="shared" si="3"/>
-        <v>-8.2882999999999942</v>
+        <v>-161.69829999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -2483,28 +2527,36 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="29">
+        <f t="shared" si="2"/>
+        <v>-58.101999999999997</v>
+      </c>
+      <c r="J9" s="17">
         <v>0.65929000000000004</v>
       </c>
-      <c r="J9" s="17">
+      <c r="K9" s="17">
         <v>-224.61</v>
       </c>
-      <c r="K9" s="17">
+      <c r="L9" s="17">
         <v>33.716000000000001</v>
       </c>
-      <c r="L9" s="18">
+      <c r="M9" s="18">
         <v>-48.645000000000003</v>
       </c>
-      <c r="M9" s="25">
-        <f t="shared" si="2"/>
+      <c r="N9" s="25">
+        <f>(J9+K9*F9)</f>
         <v>0.65929000000000004</v>
       </c>
-      <c r="N9" s="20">
+      <c r="O9" s="20">
+        <f>L9*F9</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-48.645000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="9">
         <v>-10.766</v>
@@ -2530,28 +2582,36 @@
         <f t="shared" si="1"/>
         <v>-9.2836363636363632</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="29">
+        <f t="shared" si="2"/>
+        <v>-269.3336363636364</v>
+      </c>
+      <c r="J10" s="3">
         <v>133.79</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1953.2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>47.484000000000002</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="10">
         <v>-219.31</v>
       </c>
-      <c r="M10" s="26">
-        <f t="shared" si="2"/>
+      <c r="N10" s="26">
+        <f>(J10+K10*F10)</f>
         <v>0.6172727272727343</v>
       </c>
-      <c r="N10" s="21">
+      <c r="O10" s="21">
+        <f>L10*F10</f>
+        <v>-3.2375454545454545</v>
+      </c>
+      <c r="P10" s="29">
         <f t="shared" si="3"/>
-        <v>-3.2375454545454545</v>
+        <v>-222.54754545454546</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="13">
         <v>34.57</v>
@@ -2577,28 +2637,36 @@
         <f t="shared" si="1"/>
         <v>-25.217090909090924</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="29">
+        <f t="shared" si="2"/>
+        <v>-336.84709090909092</v>
+      </c>
+      <c r="J11" s="14">
         <v>30.437999999999999</v>
       </c>
-      <c r="J11" s="14">
+      <c r="K11" s="14">
         <v>212.99</v>
       </c>
-      <c r="K11" s="14">
+      <c r="L11" s="14">
         <v>114.27</v>
       </c>
-      <c r="L11" s="15">
+      <c r="M11" s="15">
         <v>-207.53</v>
       </c>
-      <c r="M11" s="26">
-        <f t="shared" si="2"/>
+      <c r="N11" s="26">
+        <f>(J11+K11*F11)</f>
         <v>0.4257727272727081</v>
       </c>
-      <c r="N11" s="21">
+      <c r="O11" s="21">
+        <f>L11*F11</f>
+        <v>-16.101681818181827</v>
+      </c>
+      <c r="P11" s="29">
         <f t="shared" si="3"/>
-        <v>-16.101681818181827</v>
+        <v>-223.63168181818182</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
@@ -2626,28 +2694,36 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="29">
+        <f t="shared" si="2"/>
+        <v>-46.625</v>
+      </c>
+      <c r="J12" s="17">
         <v>0.63105</v>
       </c>
-      <c r="J12" s="17">
+      <c r="K12" s="17">
         <v>-832.77</v>
       </c>
-      <c r="K12" s="17">
+      <c r="L12" s="17">
         <v>-14.773999999999999</v>
       </c>
-      <c r="L12" s="18">
+      <c r="M12" s="18">
         <v>-27.236000000000001</v>
       </c>
-      <c r="M12" s="25">
-        <f t="shared" si="2"/>
+      <c r="N12" s="25">
+        <f>(J12+K12*F12)</f>
         <v>0.63105</v>
       </c>
-      <c r="N12" s="20">
+      <c r="O12" s="20">
+        <f>L12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-27.236000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9">
         <v>24.353000000000002</v>
@@ -2673,28 +2749,36 @@
         <f t="shared" si="1"/>
         <v>0.33964980544747048</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="29">
+        <f t="shared" si="2"/>
+        <v>-196.27035019455255</v>
+      </c>
+      <c r="J13" s="3">
         <v>-1.5601</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>-81.753</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>-1.8831</v>
       </c>
-      <c r="L13" s="10">
+      <c r="M13" s="10">
         <v>-155.12</v>
       </c>
-      <c r="M13" s="26">
-        <f t="shared" si="2"/>
+      <c r="N13" s="26">
+        <f>(J13+K13*F13)</f>
         <v>0.66663540856030923</v>
       </c>
-      <c r="N13" s="21">
+      <c r="O13" s="21">
+        <f>L13*F13</f>
+        <v>5.1290661478599169E-2</v>
+      </c>
+      <c r="P13" s="29">
         <f t="shared" si="3"/>
-        <v>5.1290661478599169E-2</v>
+        <v>-155.06870933852142</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9">
         <v>94.668999999999997</v>
@@ -2720,28 +2804,36 @@
         <f t="shared" si="1"/>
         <v>-13.099027237354086</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="29">
+        <f t="shared" si="2"/>
+        <v>-244.33902723735409</v>
+      </c>
+      <c r="J14" s="3">
         <v>44.332000000000001</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>749.1</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>179.74</v>
       </c>
-      <c r="L14" s="10">
+      <c r="M14" s="10">
         <v>-180.05</v>
       </c>
-      <c r="M14" s="26">
-        <f t="shared" si="2"/>
+      <c r="N14" s="26">
+        <f>(J14+K14*F14)</f>
         <v>0.61021011673151548</v>
       </c>
-      <c r="N14" s="21">
+      <c r="O14" s="21">
+        <f>L14*F14</f>
+        <v>-10.490661478599222</v>
+      </c>
+      <c r="P14" s="29">
         <f t="shared" si="3"/>
-        <v>-10.490661478599222</v>
+        <v>-190.54066147859925</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="13">
         <v>84.567999999999998</v>
@@ -2767,28 +2859,36 @@
         <f t="shared" si="1"/>
         <v>-12.24922178988326</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="29">
+        <f t="shared" si="2"/>
+        <v>-298.52922178988325</v>
+      </c>
+      <c r="J15" s="14">
         <v>23.087</v>
       </c>
-      <c r="J15" s="14">
+      <c r="K15" s="14">
         <v>187.71</v>
       </c>
-      <c r="K15" s="14">
+      <c r="L15" s="14">
         <v>121.49</v>
       </c>
-      <c r="L15" s="15">
+      <c r="M15" s="15">
         <v>-195.19</v>
       </c>
-      <c r="M15" s="27">
-        <f t="shared" si="2"/>
+      <c r="N15" s="27">
+        <f>(J15+K15*F15)</f>
         <v>0.44493774319067469</v>
       </c>
-      <c r="N15" s="22">
+      <c r="O15" s="22">
+        <f>L15*F15</f>
+        <v>-14.654435797665359</v>
+      </c>
+      <c r="P15" s="29">
         <f t="shared" si="3"/>
-        <v>-14.654435797665359</v>
+        <v>-209.84443579766537</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
@@ -2816,28 +2916,36 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="29">
+        <f t="shared" si="2"/>
+        <v>-23.14</v>
+      </c>
+      <c r="J16" s="17">
         <v>0.66274999999999995</v>
       </c>
-      <c r="J16" s="17">
+      <c r="K16" s="17">
         <v>-38.064</v>
       </c>
-      <c r="K16" s="17">
+      <c r="L16" s="17">
         <v>4.5829000000000004</v>
       </c>
-      <c r="L16" s="18">
+      <c r="M16" s="18">
         <v>-10.651999999999999</v>
       </c>
-      <c r="M16" s="26">
-        <f t="shared" si="2"/>
+      <c r="N16" s="26">
+        <f>(J16+K16*F16)</f>
         <v>0.66274999999999995</v>
       </c>
-      <c r="N16" s="21">
+      <c r="O16" s="21">
+        <f>L16*F16</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-10.651999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9">
         <v>-81.838999999999999</v>
@@ -2863,28 +2971,36 @@
         <f t="shared" si="1"/>
         <v>1.2252099644128134</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="29">
+        <f t="shared" si="2"/>
+        <v>-230.5147900355872</v>
+      </c>
+      <c r="J17" s="3">
         <v>123.75</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2034.6</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52.276000000000003</v>
       </c>
-      <c r="L17" s="10">
+      <c r="M17" s="10">
         <v>-185.15</v>
       </c>
-      <c r="M17" s="26">
-        <f t="shared" si="2"/>
+      <c r="N17" s="26">
+        <f>(J17+K17*F17)</f>
         <v>0.6603202846973204</v>
       </c>
-      <c r="N17" s="21">
+      <c r="O17" s="21">
+        <f>L17*F17</f>
+        <v>-3.1626049822064108</v>
+      </c>
+      <c r="P17" s="29">
         <f t="shared" si="3"/>
-        <v>-3.1626049822064108</v>
+        <v>-188.31260498220641</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9">
         <v>140.78</v>
@@ -2910,28 +3026,36 @@
         <f t="shared" si="1"/>
         <v>-1.3688113879003563</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="29">
+        <f t="shared" si="2"/>
+        <v>-270.73881138790034</v>
+      </c>
+      <c r="J18" s="3">
         <v>55.841999999999999</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>555.13</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>211.96</v>
       </c>
-      <c r="L18" s="10">
+      <c r="M18" s="10">
         <v>-190.83</v>
       </c>
-      <c r="M18" s="26">
-        <f t="shared" si="2"/>
+      <c r="N18" s="26">
+        <f>(J18+K18*F18)</f>
         <v>0.52655516014233683</v>
       </c>
-      <c r="N18" s="21">
+      <c r="O18" s="21">
+        <f>L18*F18</f>
+        <v>-21.1205693950178</v>
+      </c>
+      <c r="P18" s="29">
         <f t="shared" si="3"/>
-        <v>-21.1205693950178</v>
+        <v>-211.95056939501782</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="13">
         <v>34.097000000000001</v>
@@ -2957,28 +3081,36 @@
         <f t="shared" si="1"/>
         <v>-27.861032028469754</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="29">
+        <f t="shared" si="2"/>
+        <v>-326.39103202846974</v>
+      </c>
+      <c r="J19" s="14">
         <v>24.933</v>
       </c>
-      <c r="J19" s="14">
+      <c r="K19" s="14">
         <v>168.28</v>
       </c>
-      <c r="K19" s="14">
+      <c r="L19" s="14">
         <v>108.43</v>
       </c>
-      <c r="L19" s="15">
+      <c r="M19" s="15">
         <v>-183.49</v>
       </c>
-      <c r="M19" s="27">
-        <f t="shared" si="2"/>
+      <c r="N19" s="27">
+        <f>(J19+K19*F19)</f>
         <v>0.37969039145906791</v>
       </c>
-      <c r="N19" s="22">
+      <c r="O19" s="22">
+        <f>L19*F19</f>
+        <v>-15.820747330960858</v>
+      </c>
+      <c r="P19" s="29">
         <f t="shared" si="3"/>
-        <v>-15.820747330960858</v>
+        <v>-199.31074733096088</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>11</v>
       </c>
@@ -3006,28 +3138,36 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="29">
+        <f t="shared" si="2"/>
+        <v>-38.988999999999997</v>
+      </c>
+      <c r="J20" s="17">
         <v>0.66181999999999996</v>
       </c>
-      <c r="J20" s="17">
+      <c r="K20" s="17">
         <v>-97.274000000000001</v>
       </c>
-      <c r="K20" s="17">
+      <c r="L20" s="17">
         <v>23.042999999999999</v>
       </c>
-      <c r="L20" s="18">
+      <c r="M20" s="18">
         <v>-25.815999999999999</v>
       </c>
-      <c r="M20" s="26">
-        <f t="shared" si="2"/>
+      <c r="N20" s="26">
+        <f>(J20+K20*F20)</f>
         <v>0.66181999999999996</v>
       </c>
-      <c r="N20" s="21">
+      <c r="O20" s="21">
+        <f>L20*F20</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-25.815999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>12</v>
       </c>
@@ -3055,28 +3195,36 @@
         <f t="shared" si="1"/>
         <v>-12.534661921708214</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="29">
+        <f t="shared" si="2"/>
+        <v>-243.64466192170823</v>
+      </c>
+      <c r="J21" s="3">
         <v>10.037000000000001</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>219.37</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19.692</v>
       </c>
-      <c r="L21" s="10">
+      <c r="M21" s="10">
         <v>-193.79</v>
       </c>
-      <c r="M21" s="26">
-        <f t="shared" si="2"/>
+      <c r="N21" s="26">
+        <f>(J21+K21*F21)</f>
         <v>0.66888612099642053</v>
       </c>
-      <c r="N21" s="21">
+      <c r="O21" s="21">
+        <f>L21*F21</f>
+        <v>-0.84093950177936139</v>
+      </c>
+      <c r="P21" s="29">
         <f t="shared" si="3"/>
-        <v>-0.84093950177936139</v>
+        <v>-194.63093950177935</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="9">
         <v>246.87</v>
@@ -3102,28 +3250,36 @@
         <f t="shared" si="1"/>
         <v>-47.478505338078342</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="29">
+        <f t="shared" si="2"/>
+        <v>-280.41850533807832</v>
+      </c>
+      <c r="J22" s="3">
         <v>169.8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2160.9</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>201.06</v>
       </c>
-      <c r="L22" s="10">
+      <c r="M22" s="10">
         <v>-216.56</v>
       </c>
-      <c r="M22" s="26">
-        <f t="shared" si="2"/>
+      <c r="N22" s="26">
+        <f>(J22+K22*F22)</f>
         <v>0.61921708185033708</v>
       </c>
-      <c r="N22" s="21">
+      <c r="O22" s="21">
+        <f>L22*F22</f>
+        <v>-15.74135231316728</v>
+      </c>
+      <c r="P22" s="29">
         <f t="shared" si="3"/>
-        <v>-15.74135231316728</v>
+        <v>-232.30135231316729</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="13">
         <v>39.915999999999997</v>
@@ -3149,33 +3305,41 @@
         <f t="shared" si="1"/>
         <v>-17.937437722419933</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="29">
+        <f t="shared" si="2"/>
+        <v>-309.5274377224199</v>
+      </c>
+      <c r="J23" s="14">
         <v>50.731999999999999</v>
       </c>
-      <c r="J23" s="14">
+      <c r="K23" s="14">
         <v>427.7</v>
       </c>
-      <c r="K23" s="14">
+      <c r="L23" s="14">
         <v>154.15</v>
       </c>
-      <c r="L23" s="15">
+      <c r="M23" s="15">
         <v>-217.14</v>
       </c>
-      <c r="M23" s="27">
-        <f t="shared" si="2"/>
+      <c r="N23" s="27">
+        <f>(J23+K23*F23)</f>
         <v>0.50388612099643382</v>
       </c>
-      <c r="N23" s="22">
+      <c r="O23" s="22">
+        <f>L23*F23</f>
+        <v>-18.103024911032033</v>
+      </c>
+      <c r="P23" s="29">
         <f t="shared" si="3"/>
-        <v>-18.103024911032033</v>
+        <v>-235.24302491103202</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E27" s="23" t="s">
         <v>20</v>
       </c>
